--- a/biology/Botanique/Nepenthes_madagascariensis/Nepenthes_madagascariensis.xlsx
+++ b/biology/Botanique/Nepenthes_madagascariensis/Nepenthes_madagascariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes madagascariensis est une espèce de plantes carnivores originaire de Madagascar d'où elle tire son nom.
 Elle est présente sur la côte Est de l'île et plus particulièrement au niveau de la presqu'île de Masoala.
